--- a/thesis check.xlsx
+++ b/thesis check.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="18195" windowHeight="8250"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="17520" windowHeight="8250"/>
   </bookViews>
   <sheets>
     <sheet name="Chp4" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="51">
   <si>
     <t>Section</t>
   </si>
@@ -124,6 +124,51 @@
   </si>
   <si>
     <t>forecast</t>
+  </si>
+  <si>
+    <t>auto arim</t>
+  </si>
+  <si>
+    <t>Sys1</t>
+  </si>
+  <si>
+    <t>Sys2</t>
+  </si>
+  <si>
+    <t>Hybrid</t>
+  </si>
+  <si>
+    <t>Pred Close P - ANN</t>
+  </si>
+  <si>
+    <t>Pred Close P - knn</t>
+  </si>
+  <si>
+    <t>Pred UD - Ann</t>
+  </si>
+  <si>
+    <t>Pred UD - knn</t>
+  </si>
+  <si>
+    <t>Pred UD - svn</t>
+  </si>
+  <si>
+    <t>Pred 01 - Ann</t>
+  </si>
+  <si>
+    <t>Pred 01 - knn</t>
+  </si>
+  <si>
+    <t>Chapter 6</t>
+  </si>
+  <si>
+    <t>trend D</t>
+  </si>
+  <si>
+    <t>B/out</t>
+  </si>
+  <si>
+    <t>auto arima</t>
   </si>
 </sst>
 </file>
@@ -147,7 +192,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,6 +202,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -173,19 +224,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -474,68 +531,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L29"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29:D29"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M33" sqref="M33:M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="12" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:13">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
+    <row r="2" spans="2:13">
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
@@ -546,7 +608,7 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
         <v>19</v>
@@ -554,14 +616,26 @@
       <c r="H2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
@@ -572,7 +646,7 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
@@ -580,14 +654,26 @@
       <c r="H3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
@@ -607,25 +693,25 @@
         <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
         <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
+      <c r="M5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
@@ -636,7 +722,7 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
         <v>19</v>
@@ -645,25 +731,25 @@
         <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="s">
+      <c r="M6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
@@ -674,7 +760,7 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
         <v>19</v>
@@ -683,7 +769,7 @@
         <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J7" t="s">
         <v>13</v>
@@ -694,14 +780,14 @@
       <c r="L7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" t="s">
+      <c r="M7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" t="s">
         <v>1</v>
       </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
@@ -712,7 +798,7 @@
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
         <v>19</v>
@@ -721,7 +807,7 @@
         <v>19</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s">
         <v>13</v>
@@ -732,14 +818,14 @@
       <c r="L9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" t="s">
+      <c r="M9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
@@ -750,7 +836,7 @@
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
         <v>19</v>
@@ -758,14 +844,26 @@
       <c r="H10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" t="s">
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
@@ -776,7 +874,7 @@
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
         <v>19</v>
@@ -784,14 +882,26 @@
       <c r="H12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" t="s">
+      <c r="I12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
@@ -801,8 +911,8 @@
       <c r="E13" t="s">
         <v>13</v>
       </c>
-      <c r="F13" t="s">
-        <v>19</v>
+      <c r="F13" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="G13" t="s">
         <v>19</v>
@@ -810,14 +920,26 @@
       <c r="H13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" t="s">
+      <c r="I13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
@@ -828,7 +950,7 @@
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
         <v>19</v>
@@ -836,14 +958,26 @@
       <c r="H15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" t="s">
+      <c r="I15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
       <c r="C16" t="s">
         <v>13</v>
       </c>
@@ -854,7 +988,7 @@
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
         <v>19</v>
@@ -862,14 +996,26 @@
       <c r="H16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" t="s">
+      <c r="I16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="B18" t="s">
         <v>26</v>
       </c>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
       <c r="D18" t="s">
         <v>13</v>
       </c>
@@ -885,14 +1031,26 @@
       <c r="H18" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" t="s">
+      <c r="I18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="B19" t="s">
         <v>27</v>
       </c>
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
       <c r="D19" t="s">
         <v>13</v>
       </c>
@@ -908,11 +1066,29 @@
       <c r="H19" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" t="s">
+      <c r="I19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="B20" t="s">
         <v>28</v>
       </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
       <c r="F20" t="s">
         <v>13</v>
       </c>
@@ -922,24 +1098,31 @@
       <c r="H20" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="1" t="s">
+      <c r="I20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="3">
+    <row r="24" spans="1:13">
+      <c r="A24" s="3">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
         <v>30</v>
       </c>
-      <c r="C24" t="s">
-        <v>19</v>
-      </c>
       <c r="D24" t="s">
         <v>19</v>
       </c>
@@ -947,7 +1130,7 @@
         <v>19</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G24" t="s">
         <v>13</v>
@@ -956,7 +1139,7 @@
         <v>13</v>
       </c>
       <c r="I24" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J24" t="s">
         <v>19</v>
@@ -967,14 +1150,14 @@
       <c r="L24" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" t="s">
+      <c r="M24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="B25" t="s">
         <v>31</v>
       </c>
-      <c r="C25" t="s">
-        <v>19</v>
-      </c>
       <c r="D25" t="s">
         <v>19</v>
       </c>
@@ -982,7 +1165,7 @@
         <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G25" t="s">
         <v>13</v>
@@ -991,7 +1174,7 @@
         <v>13</v>
       </c>
       <c r="I25" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J25" t="s">
         <v>19</v>
@@ -1002,14 +1185,14 @@
       <c r="L25" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" t="s">
+      <c r="M25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="B26" t="s">
         <v>32</v>
       </c>
-      <c r="C26" t="s">
-        <v>19</v>
-      </c>
       <c r="D26" t="s">
         <v>19</v>
       </c>
@@ -1017,7 +1200,7 @@
         <v>19</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G26" t="s">
         <v>13</v>
@@ -1026,7 +1209,7 @@
         <v>13</v>
       </c>
       <c r="I26" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J26" t="s">
         <v>19</v>
@@ -1037,14 +1220,14 @@
       <c r="L26" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" t="s">
+      <c r="M26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="B27" t="s">
         <v>33</v>
       </c>
-      <c r="C27" t="s">
-        <v>13</v>
-      </c>
       <c r="D27" t="s">
         <v>13</v>
       </c>
@@ -1052,7 +1235,7 @@
         <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
         <v>19</v>
@@ -1072,14 +1255,14 @@
       <c r="L27" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" t="s">
+      <c r="M27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="B28" t="s">
         <v>34</v>
       </c>
-      <c r="C28" t="s">
-        <v>13</v>
-      </c>
       <c r="D28" t="s">
         <v>13</v>
       </c>
@@ -1096,7 +1279,7 @@
         <v>13</v>
       </c>
       <c r="I28" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J28" t="s">
         <v>19</v>
@@ -1107,14 +1290,14 @@
       <c r="L28" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" t="s">
+      <c r="M28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="B29" t="s">
         <v>35</v>
       </c>
-      <c r="C29" t="s">
-        <v>13</v>
-      </c>
       <c r="D29" t="s">
         <v>13</v>
       </c>
@@ -1122,7 +1305,7 @@
         <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
         <v>19</v>
@@ -1141,6 +1324,470 @@
       </c>
       <c r="L29" t="s">
         <v>19</v>
+      </c>
+      <c r="M29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31">
+        <v>5.3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" t="s">
+        <v>19</v>
+      </c>
+      <c r="L31" t="s">
+        <v>19</v>
+      </c>
+      <c r="M31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33">
+        <v>5.4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L33" t="s">
+        <v>13</v>
+      </c>
+      <c r="M33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" t="s">
+        <v>19</v>
+      </c>
+      <c r="L34" t="s">
+        <v>13</v>
+      </c>
+      <c r="M34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36">
+        <v>5.5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" t="s">
+        <v>19</v>
+      </c>
+      <c r="K36" t="s">
+        <v>19</v>
+      </c>
+      <c r="L36" t="s">
+        <v>19</v>
+      </c>
+      <c r="M36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37" t="s">
+        <v>19</v>
+      </c>
+      <c r="K37" t="s">
+        <v>19</v>
+      </c>
+      <c r="L37" t="s">
+        <v>19</v>
+      </c>
+      <c r="M37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" t="s">
+        <v>19</v>
+      </c>
+      <c r="J38" t="s">
+        <v>19</v>
+      </c>
+      <c r="K38" t="s">
+        <v>19</v>
+      </c>
+      <c r="L38" t="s">
+        <v>19</v>
+      </c>
+      <c r="M38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" t="s">
+        <v>19</v>
+      </c>
+      <c r="J40" t="s">
+        <v>19</v>
+      </c>
+      <c r="K40" t="s">
+        <v>19</v>
+      </c>
+      <c r="L40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" t="s">
+        <v>19</v>
+      </c>
+      <c r="K41" t="s">
+        <v>19</v>
+      </c>
+      <c r="L41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42" t="s">
+        <v>19</v>
+      </c>
+      <c r="K42" t="s">
+        <v>19</v>
+      </c>
+      <c r="L42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44" t="s">
+        <v>19</v>
+      </c>
+      <c r="L44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45" t="s">
+        <v>19</v>
+      </c>
+      <c r="L45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="G48" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" t="s">
+        <v>19</v>
+      </c>
+      <c r="J48" t="s">
+        <v>19</v>
+      </c>
+      <c r="K48" t="s">
+        <v>19</v>
+      </c>
+      <c r="L48" t="s">
+        <v>19</v>
+      </c>
+      <c r="M48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13">
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="G49" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" t="s">
+        <v>19</v>
+      </c>
+      <c r="J49" t="s">
+        <v>19</v>
+      </c>
+      <c r="K49" t="s">
+        <v>19</v>
+      </c>
+      <c r="L49" t="s">
+        <v>19</v>
+      </c>
+      <c r="M49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13">
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13">
+      <c r="B53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13">
+      <c r="B54" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13">
+      <c r="B56" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13">
+      <c r="B58" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1151,6 +1798,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1163,6 +1811,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
